--- a/ASM109_2021_data/AE4ASM109(dimensions).xlsx
+++ b/ASM109_2021_data/AE4ASM109(dimensions).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mortezamoradi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf92804\Desktop\AE4ASM109 Data\AssignmentCode\ASM109_2021_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A8C38-28B4-4920-8A07-3F131242BDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="30612" yWindow="2664" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UD" sheetId="1" r:id="rId1"/>
@@ -27,40 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>Top-left</t>
-  </si>
-  <si>
-    <t>Top-right</t>
-  </si>
-  <si>
-    <t>Mid-left</t>
-  </si>
-  <si>
-    <t>Mid-right</t>
-  </si>
-  <si>
-    <t>Bottom-left</t>
-  </si>
-  <si>
-    <t>Bottom-right</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Sample</t>
   </si>
@@ -73,11 +41,62 @@
   <si>
     <t>Thickness (mm)</t>
   </si>
+  <si>
+    <t>L Left</t>
+  </si>
+  <si>
+    <t>L Right</t>
+  </si>
+  <si>
+    <t>W Top</t>
+  </si>
+  <si>
+    <t>W Mid</t>
+  </si>
+  <si>
+    <t>W Bottom</t>
+  </si>
+  <si>
+    <t>W Top-left</t>
+  </si>
+  <si>
+    <t>W Top-right</t>
+  </si>
+  <si>
+    <t>W Mid-left</t>
+  </si>
+  <si>
+    <t>W Mid-right</t>
+  </si>
+  <si>
+    <t>W Bottom-left</t>
+  </si>
+  <si>
+    <t>W Bottom-right</t>
+  </si>
+  <si>
+    <t>T Top-left</t>
+  </si>
+  <si>
+    <t>T Top-right</t>
+  </si>
+  <si>
+    <t>T Mid-left</t>
+  </si>
+  <si>
+    <t>T Mid-right</t>
+  </si>
+  <si>
+    <t>T Bottom-left</t>
+  </si>
+  <si>
+    <t>T Bottom-right</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +284,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -280,19 +308,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,11 +593,743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>250.17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>250.19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.98</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="F3" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>250.16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>250.13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15.15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>250.15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>250.13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15.17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15.16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>250.14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>250.15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15.11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>250.15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>250.15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15.09</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15.09</v>
+      </c>
+      <c r="F7" s="4">
+        <v>15.09</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>250.16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>250.16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>250.18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>250.16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15.16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>15.14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>250.15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>250.13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15.16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15.13</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15.15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>250.13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>250.11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15.08</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15.09</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>250.11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>250.11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15.16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15.14</v>
+      </c>
+      <c r="F12" s="4">
+        <v>15.17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>250.11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>250.13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15.04</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15.05</v>
+      </c>
+      <c r="F13" s="4">
+        <v>15.09</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>250.16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>250.17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15.11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>15.16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>250.17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>250.15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15.15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>250.15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>250.11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>15.15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>250.11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>250.11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15.08</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="F17" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>250.1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>250.1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="F18" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>250.09</v>
+      </c>
+      <c r="C19" s="4">
+        <v>250.08</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15.11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15.36</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,61 +1349,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>10</v>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -660,37 +1411,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>250.17</v>
+        <v>175.12</v>
       </c>
       <c r="C3" s="4">
-        <v>250.19</v>
+        <v>175.11</v>
       </c>
       <c r="D3" s="2">
-        <v>14.98</v>
+        <v>25.05</v>
       </c>
       <c r="E3" s="3">
-        <v>14.99</v>
+        <v>25.07</v>
       </c>
       <c r="F3" s="4">
-        <v>14.99</v>
+        <v>25.09</v>
       </c>
       <c r="G3" s="1">
-        <v>0.76</v>
+        <v>2.09</v>
       </c>
       <c r="H3" s="1">
-        <v>0.92</v>
+        <v>2.15</v>
       </c>
       <c r="I3" s="1">
-        <v>0.77</v>
+        <v>2.08</v>
       </c>
       <c r="J3" s="1">
-        <v>0.93</v>
+        <v>2.16</v>
       </c>
       <c r="K3" s="1">
-        <v>0.76</v>
+        <v>2.1</v>
       </c>
       <c r="L3" s="1">
-        <v>0.89</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -698,37 +1449,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>250.16</v>
+        <v>175.1</v>
       </c>
       <c r="C4" s="4">
-        <v>250.13</v>
+        <v>175.09</v>
       </c>
       <c r="D4" s="2">
-        <v>15.14</v>
+        <v>24.99</v>
       </c>
       <c r="E4" s="3">
-        <v>15.12</v>
+        <v>24.97</v>
       </c>
       <c r="F4" s="4">
-        <v>15.15</v>
+        <v>24.92</v>
       </c>
       <c r="G4" s="1">
-        <v>0.96</v>
+        <v>2.17</v>
       </c>
       <c r="H4" s="1">
-        <v>1.03</v>
+        <v>2.13</v>
       </c>
       <c r="I4" s="1">
-        <v>0.99</v>
+        <v>2.15</v>
       </c>
       <c r="J4" s="1">
-        <v>1.04</v>
+        <v>2.11</v>
       </c>
       <c r="K4" s="1">
-        <v>0.95</v>
+        <v>2.17</v>
       </c>
       <c r="L4" s="1">
-        <v>0.98</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -736,37 +1487,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>250.15</v>
+        <v>175.12</v>
       </c>
       <c r="C5" s="4">
-        <v>250.13</v>
+        <v>175.11</v>
       </c>
       <c r="D5" s="2">
-        <v>15.2</v>
+        <v>25.04</v>
       </c>
       <c r="E5" s="3">
-        <v>15.17</v>
+        <v>25.08</v>
       </c>
       <c r="F5" s="4">
-        <v>15.16</v>
+        <v>25.07</v>
       </c>
       <c r="G5" s="1">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="H5" s="1">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="I5" s="1">
-        <v>1.08</v>
+        <v>2.1</v>
       </c>
       <c r="J5" s="1">
-        <v>1.07</v>
+        <v>2.1</v>
       </c>
       <c r="K5" s="1">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -774,37 +1525,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>250.14</v>
+        <v>175.1</v>
       </c>
       <c r="C6" s="4">
-        <v>250.15</v>
+        <v>175.1</v>
       </c>
       <c r="D6" s="2">
-        <v>15.12</v>
+        <v>25.04</v>
       </c>
       <c r="E6" s="3">
-        <v>15.11</v>
+        <v>25.05</v>
       </c>
       <c r="F6" s="4">
-        <v>15.1</v>
+        <v>25.05</v>
       </c>
       <c r="G6" s="1">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="H6" s="1">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="I6" s="1">
-        <v>1.05</v>
+        <v>2.09</v>
       </c>
       <c r="J6" s="1">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="K6" s="1">
-        <v>0.99</v>
+        <v>2.12</v>
       </c>
       <c r="L6" s="1">
-        <v>0.96</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -812,37 +1563,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>250.15</v>
+        <v>175.1</v>
       </c>
       <c r="C7" s="4">
-        <v>250.15</v>
+        <v>175.1</v>
       </c>
       <c r="D7" s="2">
-        <v>15.09</v>
+        <v>25.07</v>
       </c>
       <c r="E7" s="3">
-        <v>15.09</v>
+        <v>25.07</v>
       </c>
       <c r="F7" s="4">
-        <v>15.09</v>
+        <v>25.08</v>
       </c>
       <c r="G7" s="1">
-        <v>0.99</v>
+        <v>2.12</v>
       </c>
       <c r="H7" s="1">
-        <v>0.98</v>
+        <v>2.12</v>
       </c>
       <c r="I7" s="1">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="J7" s="1">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="K7" s="1">
-        <v>0.96</v>
+        <v>2.14</v>
       </c>
       <c r="L7" s="1">
-        <v>0.96</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -850,37 +1601,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>250.16</v>
+        <v>175.1</v>
       </c>
       <c r="C8" s="4">
-        <v>250.16</v>
+        <v>175.09</v>
       </c>
       <c r="D8" s="2">
-        <v>15.12</v>
+        <v>25.02</v>
       </c>
       <c r="E8" s="3">
-        <v>15.07</v>
+        <v>25.05</v>
       </c>
       <c r="F8" s="4">
-        <v>15.1</v>
+        <v>25.03</v>
       </c>
       <c r="G8" s="1">
-        <v>0.99</v>
+        <v>2.13</v>
       </c>
       <c r="H8" s="1">
-        <v>0.99</v>
+        <v>2.11</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2.12</v>
       </c>
       <c r="J8" s="1">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="K8" s="1">
-        <v>0.96</v>
+        <v>2.13</v>
       </c>
       <c r="L8" s="1">
-        <v>0.96</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -888,37 +1639,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>250.18</v>
+        <v>175.08</v>
       </c>
       <c r="C9" s="4">
-        <v>250.16</v>
+        <v>175.08</v>
       </c>
       <c r="D9" s="2">
-        <v>15.16</v>
+        <v>25.03</v>
       </c>
       <c r="E9" s="3">
-        <v>15.12</v>
+        <v>25.05</v>
       </c>
       <c r="F9" s="4">
-        <v>15.14</v>
+        <v>25.03</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2.12</v>
       </c>
       <c r="H9" s="1">
-        <v>1.01</v>
+        <v>2.11</v>
       </c>
       <c r="I9" s="1">
-        <v>1.02</v>
+        <v>2.13</v>
       </c>
       <c r="J9" s="1">
-        <v>1.03</v>
+        <v>2.09</v>
       </c>
       <c r="K9" s="1">
-        <v>0.97</v>
+        <v>2.13</v>
       </c>
       <c r="L9" s="1">
-        <v>0.97</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -926,37 +1677,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>250.15</v>
+        <v>175.08</v>
       </c>
       <c r="C10" s="4">
-        <v>250.13</v>
+        <v>175.09</v>
       </c>
       <c r="D10" s="2">
-        <v>15.16</v>
+        <v>25.06</v>
       </c>
       <c r="E10" s="3">
-        <v>15.13</v>
+        <v>25.06</v>
       </c>
       <c r="F10" s="4">
-        <v>15.15</v>
+        <v>25.06</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2.13</v>
       </c>
       <c r="H10" s="1">
-        <v>1.01</v>
+        <v>2.15</v>
       </c>
       <c r="I10" s="1">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="J10" s="1">
-        <v>1.02</v>
+        <v>2.13</v>
       </c>
       <c r="K10" s="1">
-        <v>0.98</v>
+        <v>2.14</v>
       </c>
       <c r="L10" s="1">
-        <v>0.98</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -964,361 +1715,57 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>250.13</v>
+        <v>175.07</v>
       </c>
       <c r="C11" s="4">
-        <v>250.11</v>
+        <v>175.06</v>
       </c>
       <c r="D11" s="2">
-        <v>15.08</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>15.07</v>
+        <v>25.02</v>
       </c>
       <c r="F11" s="4">
-        <v>15.09</v>
+        <v>25.04</v>
       </c>
       <c r="G11" s="1">
-        <v>0.99</v>
+        <v>2.16</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>2.12</v>
       </c>
       <c r="I11" s="1">
-        <v>1.02</v>
+        <v>2.13</v>
       </c>
       <c r="J11" s="1">
-        <v>1.02</v>
+        <v>2.11</v>
       </c>
       <c r="K11" s="1">
-        <v>0.98</v>
+        <v>2.17</v>
       </c>
       <c r="L11" s="1">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>250.11</v>
-      </c>
-      <c r="C12" s="4">
-        <v>250.11</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15.16</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15.14</v>
-      </c>
-      <c r="F12" s="4">
-        <v>15.17</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>250.11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>250.13</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15.04</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15.05</v>
-      </c>
-      <c r="F13" s="4">
-        <v>15.09</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>250.16</v>
-      </c>
-      <c r="C14" s="4">
-        <v>250.17</v>
-      </c>
-      <c r="D14" s="2">
-        <v>15.11</v>
-      </c>
-      <c r="E14" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>15.16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>250.17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>250.15</v>
-      </c>
-      <c r="D15" s="2">
-        <v>15.18</v>
-      </c>
-      <c r="E15" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>15.15</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>250.15</v>
-      </c>
-      <c r="C16" s="4">
-        <v>250.11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>15.17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>15.12</v>
-      </c>
-      <c r="F16" s="4">
-        <v>15.15</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>250.11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>250.11</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15.08</v>
-      </c>
-      <c r="E17" s="3">
-        <v>15.07</v>
-      </c>
-      <c r="F17" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.07</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>250.1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>250.1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>15.18</v>
-      </c>
-      <c r="E18" s="3">
-        <v>15.12</v>
-      </c>
-      <c r="F18" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>250.09</v>
-      </c>
-      <c r="C19" s="4">
-        <v>250.08</v>
-      </c>
-      <c r="D19" s="2">
-        <v>15.18</v>
-      </c>
-      <c r="E19" s="3">
-        <v>15.11</v>
-      </c>
-      <c r="F19" s="4">
-        <v>15.36</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.82</v>
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:L2"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1338,61 +1785,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>10</v>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1400,37 +1847,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>175.12</v>
+        <v>250.11</v>
       </c>
       <c r="C3" s="4">
-        <v>175.11</v>
+        <v>250.08</v>
       </c>
       <c r="D3" s="2">
+        <v>25.03</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25.03</v>
+      </c>
+      <c r="F3" s="4">
         <v>25.05</v>
       </c>
-      <c r="E3" s="3">
-        <v>25.07</v>
-      </c>
-      <c r="F3" s="4">
-        <v>25.09</v>
-      </c>
       <c r="G3" s="1">
-        <v>2.09</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="I3" s="1">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J3" s="1">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="K3" s="1">
-        <v>2.1</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L3" s="1">
-        <v>2.16</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1438,37 +1885,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>175.1</v>
+        <v>250.09</v>
       </c>
       <c r="C4" s="4">
-        <v>175.09</v>
+        <v>250.08</v>
       </c>
       <c r="D4" s="2">
-        <v>24.99</v>
+        <v>25.01</v>
       </c>
       <c r="E4" s="3">
-        <v>24.97</v>
+        <v>25.03</v>
       </c>
       <c r="F4" s="4">
-        <v>24.92</v>
+        <v>25.09</v>
       </c>
       <c r="G4" s="1">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="H4" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I4" s="1">
         <v>2.13</v>
       </c>
-      <c r="I4" s="1">
-        <v>2.15</v>
-      </c>
       <c r="J4" s="1">
-        <v>2.11</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K4" s="1">
-        <v>2.17</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L4" s="1">
-        <v>2.14</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1476,37 +1923,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>175.12</v>
+        <v>250.09</v>
       </c>
       <c r="C5" s="4">
-        <v>175.11</v>
+        <v>250.05</v>
       </c>
       <c r="D5" s="2">
-        <v>25.04</v>
+        <v>24.95</v>
       </c>
       <c r="E5" s="3">
-        <v>25.08</v>
+        <v>25.02</v>
       </c>
       <c r="F5" s="4">
-        <v>25.07</v>
+        <v>25.09</v>
       </c>
       <c r="G5" s="1">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H5" s="1">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="I5" s="1">
-        <v>2.1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="K5" s="1">
-        <v>2.12</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L5" s="1">
-        <v>2.12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1514,37 +1961,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>175.1</v>
+        <v>250.06</v>
       </c>
       <c r="C6" s="4">
-        <v>175.1</v>
+        <v>250.06</v>
       </c>
       <c r="D6" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="E6" s="3">
         <v>25.04</v>
       </c>
-      <c r="E6" s="3">
-        <v>25.05</v>
-      </c>
       <c r="F6" s="4">
-        <v>25.05</v>
+        <v>25.03</v>
       </c>
       <c r="G6" s="1">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H6" s="1">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I6" s="1">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="J6" s="1">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="K6" s="1">
-        <v>2.12</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>2.13</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1552,37 +1999,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>175.1</v>
+        <v>250.07</v>
       </c>
       <c r="C7" s="4">
-        <v>175.1</v>
+        <v>250.07</v>
       </c>
       <c r="D7" s="2">
-        <v>25.07</v>
+        <v>25.02</v>
       </c>
       <c r="E7" s="3">
         <v>25.07</v>
       </c>
       <c r="F7" s="4">
-        <v>25.08</v>
+        <v>25.16</v>
       </c>
       <c r="G7" s="1">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H7" s="1">
-        <v>2.12</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J7" s="1">
-        <v>2.1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K7" s="1">
-        <v>2.14</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L7" s="1">
-        <v>2.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1590,37 +2037,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>175.1</v>
+        <v>250.07</v>
       </c>
       <c r="C8" s="4">
-        <v>175.09</v>
+        <v>250.07</v>
       </c>
       <c r="D8" s="2">
-        <v>25.02</v>
+        <v>25.1</v>
       </c>
       <c r="E8" s="3">
-        <v>25.05</v>
+        <v>25.08</v>
       </c>
       <c r="F8" s="4">
-        <v>25.03</v>
+        <v>25.06</v>
       </c>
       <c r="G8" s="1">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="H8" s="1">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="I8" s="1">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="J8" s="1">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="K8" s="1">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>2.14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1628,37 +2075,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>175.08</v>
+        <v>250.07</v>
       </c>
       <c r="C9" s="4">
-        <v>175.08</v>
+        <v>250.07</v>
       </c>
       <c r="D9" s="2">
-        <v>25.03</v>
+        <v>25.05</v>
       </c>
       <c r="E9" s="3">
         <v>25.05</v>
       </c>
       <c r="F9" s="4">
-        <v>25.03</v>
+        <v>25.05</v>
       </c>
       <c r="G9" s="1">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H9" s="1">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="I9" s="1">
-        <v>2.13</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="K9" s="1">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>2.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1666,37 +2113,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>175.08</v>
+        <v>250.06</v>
       </c>
       <c r="C10" s="4">
-        <v>175.09</v>
+        <v>250.06</v>
       </c>
       <c r="D10" s="2">
-        <v>25.06</v>
+        <v>24.96</v>
       </c>
       <c r="E10" s="3">
-        <v>25.06</v>
+        <v>24.94</v>
       </c>
       <c r="F10" s="4">
-        <v>25.06</v>
+        <v>24.94</v>
       </c>
       <c r="G10" s="1">
-        <v>2.13</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I10" s="1">
-        <v>2.12</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="K10" s="1">
-        <v>2.14</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L10" s="1">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1704,37 +2151,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>175.07</v>
+        <v>250.06</v>
       </c>
       <c r="C11" s="4">
-        <v>175.06</v>
+        <v>250.07</v>
       </c>
       <c r="D11" s="2">
-        <v>25</v>
+        <v>25.01</v>
       </c>
       <c r="E11" s="3">
         <v>25.02</v>
       </c>
       <c r="F11" s="4">
-        <v>25.04</v>
+        <v>25.11</v>
       </c>
       <c r="G11" s="1">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H11" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="I11" s="1">
         <v>2.12</v>
       </c>
-      <c r="I11" s="1">
-        <v>2.13</v>
-      </c>
       <c r="J11" s="1">
-        <v>2.11</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K11" s="1">
-        <v>2.17</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L11" s="1">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>
@@ -1749,12 +2196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1774,497 +2221,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>250.11</v>
-      </c>
-      <c r="C3" s="4">
-        <v>250.08</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25.03</v>
-      </c>
-      <c r="E3" s="3">
-        <v>25.03</v>
-      </c>
-      <c r="F3" s="4">
-        <v>25.05</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>250.09</v>
-      </c>
-      <c r="C4" s="4">
-        <v>250.08</v>
-      </c>
-      <c r="D4" s="2">
-        <v>25.01</v>
-      </c>
-      <c r="E4" s="3">
-        <v>25.03</v>
-      </c>
-      <c r="F4" s="4">
-        <v>25.09</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.09</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>250.09</v>
-      </c>
-      <c r="C5" s="4">
-        <v>250.05</v>
-      </c>
-      <c r="D5" s="2">
-        <v>24.95</v>
-      </c>
-      <c r="E5" s="3">
-        <v>25.02</v>
-      </c>
-      <c r="F5" s="4">
-        <v>25.09</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>250.06</v>
-      </c>
-      <c r="C6" s="4">
-        <v>250.06</v>
-      </c>
-      <c r="D6" s="2">
-        <v>25.02</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25.04</v>
-      </c>
-      <c r="F6" s="4">
-        <v>25.03</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>250.07</v>
-      </c>
-      <c r="C7" s="4">
-        <v>250.07</v>
-      </c>
-      <c r="D7" s="2">
-        <v>25.02</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25.07</v>
-      </c>
-      <c r="F7" s="4">
-        <v>25.16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>250.07</v>
-      </c>
-      <c r="C8" s="4">
-        <v>250.07</v>
-      </c>
-      <c r="D8" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>25.08</v>
-      </c>
-      <c r="F8" s="4">
-        <v>25.06</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2.09</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>250.07</v>
-      </c>
-      <c r="C9" s="4">
-        <v>250.07</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25.05</v>
-      </c>
-      <c r="E9" s="3">
-        <v>25.05</v>
-      </c>
-      <c r="F9" s="4">
-        <v>25.05</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>250.06</v>
-      </c>
-      <c r="C10" s="4">
-        <v>250.06</v>
-      </c>
-      <c r="D10" s="2">
-        <v>24.96</v>
-      </c>
-      <c r="E10" s="3">
-        <v>24.94</v>
-      </c>
-      <c r="F10" s="4">
-        <v>24.94</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>250.06</v>
-      </c>
-      <c r="C11" s="4">
-        <v>250.07</v>
-      </c>
-      <c r="D11" s="2">
-        <v>25.01</v>
-      </c>
-      <c r="E11" s="3">
-        <v>25.02</v>
-      </c>
-      <c r="F11" s="4">
-        <v>25.11</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1.96</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="11.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>10</v>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
